--- a/FRC3157/PID_Calc.xlsx
+++ b/FRC3157/PID_Calc.xlsx
@@ -4,7 +4,7 @@
   <fileVersion appName="xl" lastEdited="4" lowestEdited="4" rupBuild="4506"/>
   <workbookPr defaultThemeVersion="124226"/>
   <bookViews>
-    <workbookView xWindow="240" yWindow="135" windowWidth="21075" windowHeight="9780"/>
+    <workbookView xWindow="240" yWindow="135" windowWidth="21075" windowHeight="9780" activeTab="1"/>
   </bookViews>
   <sheets>
     <sheet name="Sheet1" sheetId="1" r:id="rId1"/>
@@ -16,7 +16,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="14" uniqueCount="11">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="25" uniqueCount="12">
   <si>
     <t>Desired Speed</t>
   </si>
@@ -49,6 +49,9 @@
   </si>
   <si>
     <t>Actual Speed</t>
+  </si>
+  <si>
+    <t>d</t>
   </si>
 </sst>
 </file>
@@ -380,10 +383,10 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
-  <dimension ref="A1:J23"/>
+  <dimension ref="A1:J46"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="B2" sqref="B2"/>
+    <sheetView workbookViewId="0">
+      <selection activeCell="B56" sqref="B56"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15"/>
@@ -398,7 +401,7 @@
         <v>2</v>
       </c>
       <c r="B1">
-        <v>100</v>
+        <v>1</v>
       </c>
       <c r="C1" t="s">
         <v>6</v>
@@ -457,15 +460,15 @@
       </c>
       <c r="B3">
         <f>A3*B1</f>
-        <v>-100</v>
+        <v>-1</v>
       </c>
       <c r="C3">
         <f ca="1">B3*(RANDBETWEEN(80,120)/100)</f>
-        <v>-94</v>
+        <v>-1.1599999999999999</v>
       </c>
       <c r="D3">
         <f ca="1">C3-B3</f>
-        <v>6</v>
+        <v>-0.15999999999999992</v>
       </c>
       <c r="E3">
         <v>0</v>
@@ -476,7 +479,7 @@
       </c>
       <c r="G3">
         <f ca="1">A3+H3*D3+I3*E3+J3*F3</f>
-        <v>-1.06</v>
+        <v>-0.99839999999999995</v>
       </c>
       <c r="H3">
         <f>D1</f>
@@ -498,27 +501,27 @@
       </c>
       <c r="B4">
         <f>A4*B1</f>
-        <v>-90</v>
+        <v>-0.9</v>
       </c>
       <c r="C4">
         <f t="shared" ref="C4:C23" ca="1" si="0">B4*(RANDBETWEEN(80,120)/100)</f>
-        <v>-101.69999999999999</v>
+        <v>-0.95400000000000007</v>
       </c>
       <c r="D4">
         <f t="shared" ref="D4:D23" ca="1" si="1">C4-B4</f>
-        <v>-11.699999999999989</v>
+        <v>-5.4000000000000048E-2</v>
       </c>
       <c r="E4">
         <f ca="1">D3</f>
-        <v>6</v>
+        <v>-0.15999999999999992</v>
       </c>
       <c r="F4">
         <f ca="1">F3+D3</f>
-        <v>6</v>
+        <v>-0.15999999999999992</v>
       </c>
       <c r="G4">
         <f t="shared" ref="G4:G23" ca="1" si="2">A4+H4*D4+I4*E4+J4*F4</f>
-        <v>-0.78300000000000014</v>
+        <v>-0.89946000000000004</v>
       </c>
       <c r="H4">
         <f>H3</f>
@@ -540,27 +543,27 @@
       </c>
       <c r="B5">
         <f>A5*B1</f>
-        <v>-80</v>
+        <v>-0.8</v>
       </c>
       <c r="C5">
         <f t="shared" ca="1" si="0"/>
-        <v>-80.8</v>
+        <v>-0.94399999999999995</v>
       </c>
       <c r="D5">
         <f t="shared" ca="1" si="1"/>
-        <v>-0.79999999999999716</v>
+        <v>-0.14399999999999991</v>
       </c>
       <c r="E5">
         <f t="shared" ref="E5:E23" ca="1" si="4">D4</f>
-        <v>-11.699999999999989</v>
+        <v>-5.4000000000000048E-2</v>
       </c>
       <c r="F5">
         <f t="shared" ref="F5:F23" ca="1" si="5">F4+D4</f>
-        <v>-5.6999999999999886</v>
+        <v>-0.21399999999999997</v>
       </c>
       <c r="G5">
         <f t="shared" ca="1" si="2"/>
-        <v>-0.79200000000000004</v>
+        <v>-0.79856000000000005</v>
       </c>
       <c r="H5">
         <f t="shared" ref="H5:H23" si="6">H4</f>
@@ -582,27 +585,27 @@
       </c>
       <c r="B6">
         <f>A6*B1</f>
-        <v>-70</v>
+        <v>-0.70000000000000007</v>
       </c>
       <c r="C6">
         <f t="shared" ca="1" si="0"/>
-        <v>-77</v>
+        <v>-0.68600000000000005</v>
       </c>
       <c r="D6">
         <f t="shared" ca="1" si="1"/>
-        <v>-7</v>
+        <v>1.4000000000000012E-2</v>
       </c>
       <c r="E6">
         <f t="shared" ca="1" si="4"/>
-        <v>-0.79999999999999716</v>
+        <v>-0.14399999999999991</v>
       </c>
       <c r="F6">
         <f t="shared" ca="1" si="5"/>
-        <v>-6.4999999999999858</v>
+        <v>-0.35799999999999987</v>
       </c>
       <c r="G6">
         <f t="shared" ca="1" si="2"/>
-        <v>-0.63000000000000012</v>
+        <v>-0.7001400000000001</v>
       </c>
       <c r="H6">
         <f t="shared" si="6"/>
@@ -624,27 +627,27 @@
       </c>
       <c r="B7">
         <f>A7*B1</f>
-        <v>-60.000000000000007</v>
+        <v>-0.60000000000000009</v>
       </c>
       <c r="C7">
         <f t="shared" ca="1" si="0"/>
-        <v>-57.000000000000007</v>
+        <v>-0.6120000000000001</v>
       </c>
       <c r="D7">
         <f t="shared" ca="1" si="1"/>
-        <v>3</v>
+        <v>-1.2000000000000011E-2</v>
       </c>
       <c r="E7">
         <f t="shared" ca="1" si="4"/>
-        <v>-7</v>
+        <v>1.4000000000000012E-2</v>
       </c>
       <c r="F7">
         <f t="shared" ca="1" si="5"/>
-        <v>-13.499999999999986</v>
+        <v>-0.34399999999999986</v>
       </c>
       <c r="G7">
         <f t="shared" ca="1" si="2"/>
-        <v>-0.63000000000000012</v>
+        <v>-0.59988000000000008</v>
       </c>
       <c r="H7">
         <f t="shared" si="6"/>
@@ -666,27 +669,27 @@
       </c>
       <c r="B8">
         <f>A8*B1</f>
-        <v>-50.000000000000014</v>
+        <v>-0.50000000000000011</v>
       </c>
       <c r="C8">
         <f t="shared" ca="1" si="0"/>
-        <v>-59.000000000000014</v>
+        <v>-0.53500000000000014</v>
       </c>
       <c r="D8">
         <f t="shared" ca="1" si="1"/>
-        <v>-9</v>
+        <v>-3.5000000000000031E-2</v>
       </c>
       <c r="E8">
         <f t="shared" ca="1" si="4"/>
-        <v>3</v>
+        <v>-1.2000000000000011E-2</v>
       </c>
       <c r="F8">
         <f t="shared" ca="1" si="5"/>
-        <v>-10.499999999999986</v>
+        <v>-0.35599999999999987</v>
       </c>
       <c r="G8">
         <f t="shared" ca="1" si="2"/>
-        <v>-0.41000000000000014</v>
+        <v>-0.49965000000000009</v>
       </c>
       <c r="H8">
         <f t="shared" si="6"/>
@@ -708,27 +711,27 @@
       </c>
       <c r="B9">
         <f>A9*B1</f>
-        <v>-40.000000000000014</v>
+        <v>-0.40000000000000013</v>
       </c>
       <c r="C9">
         <f t="shared" ca="1" si="0"/>
-        <v>-42.800000000000018</v>
+        <v>-0.35600000000000015</v>
       </c>
       <c r="D9">
         <f t="shared" ca="1" si="1"/>
-        <v>-2.8000000000000043</v>
+        <v>4.3999999999999984E-2</v>
       </c>
       <c r="E9">
         <f t="shared" ca="1" si="4"/>
-        <v>-9</v>
+        <v>-3.5000000000000031E-2</v>
       </c>
       <c r="F9">
         <f t="shared" ca="1" si="5"/>
-        <v>-19.499999999999986</v>
+        <v>-0.3909999999999999</v>
       </c>
       <c r="G9">
         <f t="shared" ca="1" si="2"/>
-        <v>-0.37200000000000011</v>
+        <v>-0.40044000000000013</v>
       </c>
       <c r="H9">
         <f t="shared" si="6"/>
@@ -750,27 +753,27 @@
       </c>
       <c r="B10">
         <f>A10*B1</f>
-        <v>-30.000000000000014</v>
+        <v>-0.30000000000000016</v>
       </c>
       <c r="C10">
         <f t="shared" ca="1" si="0"/>
-        <v>-33.300000000000018</v>
+        <v>-0.28200000000000014</v>
       </c>
       <c r="D10">
         <f t="shared" ca="1" si="1"/>
-        <v>-3.3000000000000043</v>
+        <v>1.8000000000000016E-2</v>
       </c>
       <c r="E10">
         <f t="shared" ca="1" si="4"/>
-        <v>-2.8000000000000043</v>
+        <v>4.3999999999999984E-2</v>
       </c>
       <c r="F10">
         <f t="shared" ca="1" si="5"/>
-        <v>-22.29999999999999</v>
+        <v>-0.34699999999999992</v>
       </c>
       <c r="G10">
         <f t="shared" ca="1" si="2"/>
-        <v>-0.26700000000000013</v>
+        <v>-0.30018000000000017</v>
       </c>
       <c r="H10">
         <f t="shared" si="6"/>
@@ -792,27 +795,27 @@
       </c>
       <c r="B11">
         <f>A11*B1</f>
-        <v>-20.000000000000014</v>
+        <v>-0.20000000000000015</v>
       </c>
       <c r="C11">
         <f t="shared" ca="1" si="0"/>
-        <v>-22.600000000000016</v>
+        <v>-0.23400000000000015</v>
       </c>
       <c r="D11">
         <f t="shared" ca="1" si="1"/>
-        <v>-2.6000000000000014</v>
+        <v>-3.4000000000000002E-2</v>
       </c>
       <c r="E11">
         <f t="shared" ca="1" si="4"/>
-        <v>-3.3000000000000043</v>
+        <v>1.8000000000000016E-2</v>
       </c>
       <c r="F11">
         <f t="shared" ca="1" si="5"/>
-        <v>-25.599999999999994</v>
+        <v>-0.3289999999999999</v>
       </c>
       <c r="G11">
         <f t="shared" ca="1" si="2"/>
-        <v>-0.17400000000000013</v>
+        <v>-0.19966000000000014</v>
       </c>
       <c r="H11">
         <f t="shared" si="6"/>
@@ -834,27 +837,27 @@
       </c>
       <c r="B12">
         <f>A12*B1</f>
-        <v>-10.000000000000014</v>
+        <v>-0.10000000000000014</v>
       </c>
       <c r="C12">
         <f t="shared" ca="1" si="0"/>
-        <v>-9.3000000000000131</v>
+        <v>-0.10600000000000016</v>
       </c>
       <c r="D12">
         <f t="shared" ca="1" si="1"/>
-        <v>0.70000000000000107</v>
+        <v>-6.0000000000000192E-3</v>
       </c>
       <c r="E12">
         <f t="shared" ca="1" si="4"/>
-        <v>-2.6000000000000014</v>
+        <v>-3.4000000000000002E-2</v>
       </c>
       <c r="F12">
         <f t="shared" ca="1" si="5"/>
-        <v>-28.199999999999996</v>
+        <v>-0.36299999999999988</v>
       </c>
       <c r="G12">
         <f t="shared" ca="1" si="2"/>
-        <v>-0.10700000000000015</v>
+        <v>-9.994000000000014E-2</v>
       </c>
       <c r="H12">
         <f t="shared" si="6"/>
@@ -876,27 +879,27 @@
       </c>
       <c r="B13">
         <f>A13*B1</f>
-        <v>-1.3877787807814457E-14</v>
+        <v>-1.3877787807814457E-16</v>
       </c>
       <c r="C13">
         <f t="shared" ca="1" si="0"/>
-        <v>-1.4432899320127035E-14</v>
+        <v>-1.4432899320127036E-16</v>
       </c>
       <c r="D13">
         <f t="shared" ca="1" si="1"/>
-        <v>-5.5511151231257827E-16</v>
+        <v>-5.5511151231257876E-18</v>
       </c>
       <c r="E13">
         <f t="shared" ca="1" si="4"/>
-        <v>0.70000000000000107</v>
+        <v>-6.0000000000000192E-3</v>
       </c>
       <c r="F13">
         <f t="shared" ca="1" si="5"/>
-        <v>-27.499999999999993</v>
+        <v>-0.36899999999999988</v>
       </c>
       <c r="G13">
         <f t="shared" ca="1" si="2"/>
-        <v>-1.3322676295501878E-16</v>
+        <v>-1.3872236692691332E-16</v>
       </c>
       <c r="H13">
         <f t="shared" si="6"/>
@@ -918,27 +921,27 @@
       </c>
       <c r="B14">
         <f>A14*B1</f>
-        <v>9.9999999999999858</v>
+        <v>9.9999999999999867E-2</v>
       </c>
       <c r="C14">
         <f t="shared" ca="1" si="0"/>
-        <v>10.699999999999985</v>
+        <v>9.1999999999999887E-2</v>
       </c>
       <c r="D14">
         <f t="shared" ca="1" si="1"/>
-        <v>0.69999999999999929</v>
+        <v>-7.9999999999999793E-3</v>
       </c>
       <c r="E14">
         <f t="shared" ca="1" si="4"/>
-        <v>-5.5511151231257827E-16</v>
+        <v>-5.5511151231257876E-18</v>
       </c>
       <c r="F14">
         <f t="shared" ca="1" si="5"/>
-        <v>-27.499999999999993</v>
+        <v>-0.36899999999999988</v>
       </c>
       <c r="G14">
         <f t="shared" ca="1" si="2"/>
-        <v>9.2999999999999874E-2</v>
+        <v>0.10007999999999986</v>
       </c>
       <c r="H14">
         <f t="shared" si="6"/>
@@ -960,27 +963,27 @@
       </c>
       <c r="B15">
         <f>A15*B1</f>
-        <v>19.999999999999986</v>
+        <v>0.19999999999999987</v>
       </c>
       <c r="C15">
         <f t="shared" ca="1" si="0"/>
-        <v>22.199999999999985</v>
+        <v>0.17599999999999988</v>
       </c>
       <c r="D15">
         <f t="shared" ca="1" si="1"/>
-        <v>2.1999999999999993</v>
+        <v>-2.3999999999999994E-2</v>
       </c>
       <c r="E15">
         <f t="shared" ca="1" si="4"/>
-        <v>0.69999999999999929</v>
+        <v>-7.9999999999999793E-3</v>
       </c>
       <c r="F15">
         <f t="shared" ca="1" si="5"/>
-        <v>-26.799999999999994</v>
+        <v>-0.37699999999999989</v>
       </c>
       <c r="G15">
         <f t="shared" ca="1" si="2"/>
-        <v>0.17799999999999988</v>
+        <v>0.20023999999999986</v>
       </c>
       <c r="H15">
         <f t="shared" si="6"/>
@@ -1002,27 +1005,27 @@
       </c>
       <c r="B16">
         <f>A16*B1</f>
-        <v>29.999999999999989</v>
+        <v>0.29999999999999988</v>
       </c>
       <c r="C16">
         <f t="shared" ca="1" si="0"/>
-        <v>24.299999999999994</v>
+        <v>0.35099999999999981</v>
       </c>
       <c r="D16">
         <f t="shared" ca="1" si="1"/>
-        <v>-5.6999999999999957</v>
+        <v>5.0999999999999934E-2</v>
       </c>
       <c r="E16">
         <f t="shared" ca="1" si="4"/>
-        <v>2.1999999999999993</v>
+        <v>-2.3999999999999994E-2</v>
       </c>
       <c r="F16">
         <f t="shared" ca="1" si="5"/>
-        <v>-24.599999999999994</v>
+        <v>-0.40099999999999991</v>
       </c>
       <c r="G16">
         <f t="shared" ca="1" si="2"/>
-        <v>0.35699999999999982</v>
+        <v>0.29948999999999987</v>
       </c>
       <c r="H16">
         <f t="shared" si="6"/>
@@ -1044,27 +1047,27 @@
       </c>
       <c r="B17">
         <f>A17*B1</f>
-        <v>39.999999999999993</v>
+        <v>0.39999999999999991</v>
       </c>
       <c r="C17">
         <f t="shared" ca="1" si="0"/>
-        <v>39.999999999999993</v>
+        <v>0.39599999999999991</v>
       </c>
       <c r="D17">
         <f t="shared" ca="1" si="1"/>
-        <v>0</v>
+        <v>-4.0000000000000036E-3</v>
       </c>
       <c r="E17">
         <f t="shared" ca="1" si="4"/>
-        <v>-5.6999999999999957</v>
+        <v>5.0999999999999934E-2</v>
       </c>
       <c r="F17">
         <f t="shared" ca="1" si="5"/>
-        <v>-30.29999999999999</v>
+        <v>-0.35</v>
       </c>
       <c r="G17">
         <f t="shared" ca="1" si="2"/>
-        <v>0.39999999999999991</v>
+        <v>0.4000399999999999</v>
       </c>
       <c r="H17">
         <f t="shared" si="6"/>
@@ -1086,27 +1089,27 @@
       </c>
       <c r="B18">
         <f>A18*B1</f>
-        <v>49.999999999999986</v>
+        <v>0.49999999999999989</v>
       </c>
       <c r="C18">
         <f t="shared" ca="1" si="0"/>
-        <v>52.499999999999986</v>
+        <v>0.4449999999999999</v>
       </c>
       <c r="D18">
         <f t="shared" ca="1" si="1"/>
-        <v>2.5</v>
+        <v>-5.4999999999999993E-2</v>
       </c>
       <c r="E18">
         <f t="shared" ca="1" si="4"/>
-        <v>0</v>
+        <v>-4.0000000000000036E-3</v>
       </c>
       <c r="F18">
         <f t="shared" ca="1" si="5"/>
-        <v>-30.29999999999999</v>
+        <v>-0.35399999999999998</v>
       </c>
       <c r="G18">
         <f t="shared" ca="1" si="2"/>
-        <v>0.47499999999999987</v>
+        <v>0.50054999999999994</v>
       </c>
       <c r="H18">
         <f t="shared" si="6"/>
@@ -1128,27 +1131,27 @@
       </c>
       <c r="B19">
         <f>A19*B1</f>
-        <v>59.999999999999986</v>
+        <v>0.59999999999999987</v>
       </c>
       <c r="C19">
         <f t="shared" ca="1" si="0"/>
-        <v>63.599999999999987</v>
+        <v>0.55199999999999994</v>
       </c>
       <c r="D19">
         <f t="shared" ca="1" si="1"/>
-        <v>3.6000000000000014</v>
+        <v>-4.7999999999999932E-2</v>
       </c>
       <c r="E19">
         <f t="shared" ca="1" si="4"/>
-        <v>2.5</v>
+        <v>-5.4999999999999993E-2</v>
       </c>
       <c r="F19">
         <f t="shared" ca="1" si="5"/>
-        <v>-27.79999999999999</v>
+        <v>-0.40899999999999997</v>
       </c>
       <c r="G19">
         <f t="shared" ca="1" si="2"/>
-        <v>0.56399999999999983</v>
+        <v>0.6004799999999999</v>
       </c>
       <c r="H19">
         <f t="shared" si="6"/>
@@ -1170,27 +1173,27 @@
       </c>
       <c r="B20">
         <f>A20*B1</f>
-        <v>69.999999999999986</v>
+        <v>0.69999999999999984</v>
       </c>
       <c r="C20">
         <f t="shared" ca="1" si="0"/>
-        <v>63.699999999999989</v>
+        <v>0.66499999999999981</v>
       </c>
       <c r="D20">
         <f t="shared" ca="1" si="1"/>
-        <v>-6.2999999999999972</v>
+        <v>-3.5000000000000031E-2</v>
       </c>
       <c r="E20">
         <f t="shared" ca="1" si="4"/>
-        <v>3.6000000000000014</v>
+        <v>-4.7999999999999932E-2</v>
       </c>
       <c r="F20">
         <f t="shared" ca="1" si="5"/>
-        <v>-24.199999999999989</v>
+        <v>-0.45699999999999991</v>
       </c>
       <c r="G20">
         <f t="shared" ca="1" si="2"/>
-        <v>0.76299999999999979</v>
+        <v>0.70034999999999981</v>
       </c>
       <c r="H20">
         <f t="shared" si="6"/>
@@ -1212,27 +1215,27 @@
       </c>
       <c r="B21">
         <f>A21*B1</f>
-        <v>79.999999999999986</v>
+        <v>0.79999999999999982</v>
       </c>
       <c r="C21">
         <f t="shared" ca="1" si="0"/>
-        <v>85.6</v>
+        <v>0.7759999999999998</v>
       </c>
       <c r="D21">
         <f t="shared" ca="1" si="1"/>
-        <v>5.6000000000000085</v>
+        <v>-2.4000000000000021E-2</v>
       </c>
       <c r="E21">
         <f t="shared" ca="1" si="4"/>
-        <v>-6.2999999999999972</v>
+        <v>-3.5000000000000031E-2</v>
       </c>
       <c r="F21">
         <f t="shared" ca="1" si="5"/>
-        <v>-30.499999999999986</v>
+        <v>-0.49199999999999994</v>
       </c>
       <c r="G21">
         <f t="shared" ca="1" si="2"/>
-        <v>0.74399999999999977</v>
+        <v>0.80023999999999984</v>
       </c>
       <c r="H21">
         <f t="shared" si="6"/>
@@ -1254,27 +1257,27 @@
       </c>
       <c r="B22">
         <f>A22*B1</f>
-        <v>89.999999999999986</v>
+        <v>0.8999999999999998</v>
       </c>
       <c r="C22">
         <f t="shared" ca="1" si="0"/>
-        <v>88.199999999999989</v>
+        <v>0.95399999999999985</v>
       </c>
       <c r="D22">
         <f t="shared" ca="1" si="1"/>
-        <v>-1.7999999999999972</v>
+        <v>5.4000000000000048E-2</v>
       </c>
       <c r="E22">
         <f t="shared" ca="1" si="4"/>
-        <v>5.6000000000000085</v>
+        <v>-2.4000000000000021E-2</v>
       </c>
       <c r="F22">
         <f t="shared" ca="1" si="5"/>
-        <v>-24.899999999999977</v>
+        <v>-0.51600000000000001</v>
       </c>
       <c r="G22">
         <f t="shared" ca="1" si="2"/>
-        <v>0.91799999999999982</v>
+        <v>0.89945999999999982</v>
       </c>
       <c r="H22">
         <f t="shared" si="6"/>
@@ -1296,27 +1299,27 @@
       </c>
       <c r="B23">
         <f>A23*B1</f>
-        <v>99.999999999999972</v>
+        <v>0.99999999999999978</v>
       </c>
       <c r="C23">
         <f t="shared" ca="1" si="0"/>
-        <v>108.99999999999997</v>
+        <v>0.85999999999999976</v>
       </c>
       <c r="D23">
         <f t="shared" ca="1" si="1"/>
-        <v>9</v>
+        <v>-0.14000000000000001</v>
       </c>
       <c r="E23">
         <f t="shared" ca="1" si="4"/>
-        <v>-1.7999999999999972</v>
+        <v>5.4000000000000048E-2</v>
       </c>
       <c r="F23">
         <f t="shared" ca="1" si="5"/>
-        <v>-26.699999999999974</v>
+        <v>-0.46199999999999997</v>
       </c>
       <c r="G23">
         <f t="shared" ca="1" si="2"/>
-        <v>0.90999999999999981</v>
+        <v>1.0013999999999998</v>
       </c>
       <c r="H23">
         <f t="shared" si="6"/>
@@ -1328,6 +1331,898 @@
       </c>
       <c r="J23">
         <f t="shared" si="8"/>
+        <v>0</v>
+      </c>
+    </row>
+    <row r="25" spans="1:10">
+      <c r="A25" t="s">
+        <v>1</v>
+      </c>
+      <c r="B25" t="s">
+        <v>0</v>
+      </c>
+      <c r="C25" t="s">
+        <v>10</v>
+      </c>
+      <c r="D25" t="s">
+        <v>3</v>
+      </c>
+      <c r="E25" t="s">
+        <v>4</v>
+      </c>
+      <c r="F25" t="s">
+        <v>5</v>
+      </c>
+      <c r="G25" t="s">
+        <v>9</v>
+      </c>
+      <c r="H25" t="s">
+        <v>6</v>
+      </c>
+      <c r="I25" t="s">
+        <v>7</v>
+      </c>
+      <c r="J25" t="s">
+        <v>8</v>
+      </c>
+    </row>
+    <row r="26" spans="1:10">
+      <c r="A26">
+        <v>-1</v>
+      </c>
+      <c r="B26">
+        <f>1</f>
+        <v>1</v>
+      </c>
+      <c r="C26">
+        <f ca="1">B26*(RANDBETWEEN(80,120)/100)</f>
+        <v>0.94</v>
+      </c>
+      <c r="D26">
+        <f ca="1">C26-B26</f>
+        <v>-6.0000000000000053E-2</v>
+      </c>
+      <c r="E26">
+        <v>0</v>
+      </c>
+      <c r="F26">
+        <f>0</f>
+        <v>0</v>
+      </c>
+      <c r="G26">
+        <f ca="1">A26+H26*D26+I26*E26+J26*F26</f>
+        <v>-0.99939999999999996</v>
+      </c>
+      <c r="H26">
+        <f>D1</f>
+        <v>-0.01</v>
+      </c>
+      <c r="I26">
+        <f>F1</f>
+        <v>0</v>
+      </c>
+      <c r="J26">
+        <f>H1</f>
+        <v>0</v>
+      </c>
+    </row>
+    <row r="27" spans="1:10">
+      <c r="A27">
+        <v>-1</v>
+      </c>
+      <c r="B27">
+        <f>B26-0.1</f>
+        <v>0.9</v>
+      </c>
+      <c r="C27">
+        <f t="shared" ref="C27:C46" ca="1" si="9">B27*(RANDBETWEEN(80,120)/100)</f>
+        <v>0.78300000000000003</v>
+      </c>
+      <c r="D27">
+        <f t="shared" ref="D27:D46" ca="1" si="10">C27-B27</f>
+        <v>-0.11699999999999999</v>
+      </c>
+      <c r="E27">
+        <f ca="1">D26</f>
+        <v>-6.0000000000000053E-2</v>
+      </c>
+      <c r="F27">
+        <f ca="1">F26+D26</f>
+        <v>-6.0000000000000053E-2</v>
+      </c>
+      <c r="G27">
+        <f t="shared" ref="G27:G46" ca="1" si="11">A27+H27*D27+I27*E27+J27*F27</f>
+        <v>-0.99883</v>
+      </c>
+      <c r="H27">
+        <f>H26</f>
+        <v>-0.01</v>
+      </c>
+      <c r="I27">
+        <f>I26</f>
+        <v>0</v>
+      </c>
+      <c r="J27">
+        <f>J26</f>
+        <v>0</v>
+      </c>
+    </row>
+    <row r="28" spans="1:10">
+      <c r="A28">
+        <v>-1</v>
+      </c>
+      <c r="B28">
+        <f t="shared" ref="B28:B46" si="12">B27-0.1</f>
+        <v>0.8</v>
+      </c>
+      <c r="C28">
+        <f t="shared" ca="1" si="9"/>
+        <v>0.69600000000000006</v>
+      </c>
+      <c r="D28">
+        <f t="shared" ca="1" si="10"/>
+        <v>-0.10399999999999998</v>
+      </c>
+      <c r="E28">
+        <f t="shared" ref="E28:E46" ca="1" si="13">D27</f>
+        <v>-0.11699999999999999</v>
+      </c>
+      <c r="F28">
+        <f t="shared" ref="F28:F46" ca="1" si="14">F27+D27</f>
+        <v>-0.17700000000000005</v>
+      </c>
+      <c r="G28">
+        <f t="shared" ca="1" si="11"/>
+        <v>-0.99895999999999996</v>
+      </c>
+      <c r="H28">
+        <f t="shared" ref="H28:J43" si="15">H27</f>
+        <v>-0.01</v>
+      </c>
+      <c r="I28">
+        <f t="shared" si="15"/>
+        <v>0</v>
+      </c>
+      <c r="J28">
+        <f t="shared" si="15"/>
+        <v>0</v>
+      </c>
+    </row>
+    <row r="29" spans="1:10">
+      <c r="A29">
+        <v>-1</v>
+      </c>
+      <c r="B29">
+        <f t="shared" si="12"/>
+        <v>0.70000000000000007</v>
+      </c>
+      <c r="C29">
+        <f t="shared" ca="1" si="9"/>
+        <v>0.7350000000000001</v>
+      </c>
+      <c r="D29">
+        <f t="shared" ca="1" si="10"/>
+        <v>3.5000000000000031E-2</v>
+      </c>
+      <c r="E29">
+        <f t="shared" ca="1" si="13"/>
+        <v>-0.10399999999999998</v>
+      </c>
+      <c r="F29">
+        <f t="shared" ca="1" si="14"/>
+        <v>-0.28100000000000003</v>
+      </c>
+      <c r="G29">
+        <f t="shared" ca="1" si="11"/>
+        <v>-1.0003500000000001</v>
+      </c>
+      <c r="H29">
+        <f t="shared" si="15"/>
+        <v>-0.01</v>
+      </c>
+      <c r="I29">
+        <f t="shared" si="15"/>
+        <v>0</v>
+      </c>
+      <c r="J29">
+        <f t="shared" si="15"/>
+        <v>0</v>
+      </c>
+    </row>
+    <row r="30" spans="1:10">
+      <c r="A30">
+        <v>-1</v>
+      </c>
+      <c r="B30">
+        <f t="shared" si="12"/>
+        <v>0.60000000000000009</v>
+      </c>
+      <c r="C30">
+        <f t="shared" ca="1" si="9"/>
+        <v>0.72000000000000008</v>
+      </c>
+      <c r="D30">
+        <f t="shared" ca="1" si="10"/>
+        <v>0.12</v>
+      </c>
+      <c r="E30">
+        <f t="shared" ca="1" si="13"/>
+        <v>3.5000000000000031E-2</v>
+      </c>
+      <c r="F30">
+        <f t="shared" ca="1" si="14"/>
+        <v>-0.246</v>
+      </c>
+      <c r="G30">
+        <f t="shared" ca="1" si="11"/>
+        <v>-1.0012000000000001</v>
+      </c>
+      <c r="H30">
+        <f t="shared" si="15"/>
+        <v>-0.01</v>
+      </c>
+      <c r="I30">
+        <f t="shared" si="15"/>
+        <v>0</v>
+      </c>
+      <c r="J30">
+        <f t="shared" si="15"/>
+        <v>0</v>
+      </c>
+    </row>
+    <row r="31" spans="1:10">
+      <c r="A31">
+        <v>-1</v>
+      </c>
+      <c r="B31">
+        <f t="shared" si="12"/>
+        <v>0.50000000000000011</v>
+      </c>
+      <c r="C31">
+        <f t="shared" ca="1" si="9"/>
+        <v>0.40000000000000013</v>
+      </c>
+      <c r="D31">
+        <f t="shared" ca="1" si="10"/>
+        <v>-9.9999999999999978E-2</v>
+      </c>
+      <c r="E31">
+        <f t="shared" ca="1" si="13"/>
+        <v>0.12</v>
+      </c>
+      <c r="F31">
+        <f t="shared" ca="1" si="14"/>
+        <v>-0.126</v>
+      </c>
+      <c r="G31">
+        <f t="shared" ca="1" si="11"/>
+        <v>-0.999</v>
+      </c>
+      <c r="H31">
+        <f t="shared" si="15"/>
+        <v>-0.01</v>
+      </c>
+      <c r="I31">
+        <f t="shared" si="15"/>
+        <v>0</v>
+      </c>
+      <c r="J31">
+        <f t="shared" si="15"/>
+        <v>0</v>
+      </c>
+    </row>
+    <row r="32" spans="1:10">
+      <c r="A32">
+        <v>-1</v>
+      </c>
+      <c r="B32">
+        <f t="shared" si="12"/>
+        <v>0.40000000000000013</v>
+      </c>
+      <c r="C32">
+        <f t="shared" ca="1" si="9"/>
+        <v>0.32800000000000007</v>
+      </c>
+      <c r="D32">
+        <f t="shared" ca="1" si="10"/>
+        <v>-7.2000000000000064E-2</v>
+      </c>
+      <c r="E32">
+        <f t="shared" ca="1" si="13"/>
+        <v>-9.9999999999999978E-2</v>
+      </c>
+      <c r="F32">
+        <f t="shared" ca="1" si="14"/>
+        <v>-0.22599999999999998</v>
+      </c>
+      <c r="G32">
+        <f t="shared" ca="1" si="11"/>
+        <v>-0.99927999999999995</v>
+      </c>
+      <c r="H32">
+        <f t="shared" si="15"/>
+        <v>-0.01</v>
+      </c>
+      <c r="I32">
+        <f t="shared" si="15"/>
+        <v>0</v>
+      </c>
+      <c r="J32">
+        <f t="shared" si="15"/>
+        <v>0</v>
+      </c>
+    </row>
+    <row r="33" spans="1:10">
+      <c r="A33">
+        <v>-1</v>
+      </c>
+      <c r="B33">
+        <f t="shared" si="12"/>
+        <v>0.30000000000000016</v>
+      </c>
+      <c r="C33">
+        <f t="shared" ca="1" si="9"/>
+        <v>0.32100000000000017</v>
+      </c>
+      <c r="D33">
+        <f t="shared" ca="1" si="10"/>
+        <v>2.1000000000000019E-2</v>
+      </c>
+      <c r="E33">
+        <f t="shared" ca="1" si="13"/>
+        <v>-7.2000000000000064E-2</v>
+      </c>
+      <c r="F33">
+        <f t="shared" ca="1" si="14"/>
+        <v>-0.29800000000000004</v>
+      </c>
+      <c r="G33">
+        <f t="shared" ca="1" si="11"/>
+        <v>-1.00021</v>
+      </c>
+      <c r="H33">
+        <f t="shared" si="15"/>
+        <v>-0.01</v>
+      </c>
+      <c r="I33">
+        <f t="shared" si="15"/>
+        <v>0</v>
+      </c>
+      <c r="J33">
+        <f t="shared" si="15"/>
+        <v>0</v>
+      </c>
+    </row>
+    <row r="34" spans="1:10">
+      <c r="A34">
+        <v>-1</v>
+      </c>
+      <c r="B34">
+        <f t="shared" si="12"/>
+        <v>0.20000000000000015</v>
+      </c>
+      <c r="C34">
+        <f t="shared" ca="1" si="9"/>
+        <v>0.2200000000000002</v>
+      </c>
+      <c r="D34">
+        <f t="shared" ca="1" si="10"/>
+        <v>2.0000000000000046E-2</v>
+      </c>
+      <c r="E34">
+        <f t="shared" ca="1" si="13"/>
+        <v>2.1000000000000019E-2</v>
+      </c>
+      <c r="F34">
+        <f t="shared" ca="1" si="14"/>
+        <v>-0.27700000000000002</v>
+      </c>
+      <c r="G34">
+        <f t="shared" ca="1" si="11"/>
+        <v>-1.0002</v>
+      </c>
+      <c r="H34">
+        <f t="shared" si="15"/>
+        <v>-0.01</v>
+      </c>
+      <c r="I34">
+        <f t="shared" si="15"/>
+        <v>0</v>
+      </c>
+      <c r="J34">
+        <f t="shared" si="15"/>
+        <v>0</v>
+      </c>
+    </row>
+    <row r="35" spans="1:10">
+      <c r="A35">
+        <v>-1</v>
+      </c>
+      <c r="B35">
+        <f t="shared" si="12"/>
+        <v>0.10000000000000014</v>
+      </c>
+      <c r="C35">
+        <f t="shared" ca="1" si="9"/>
+        <v>0.11600000000000016</v>
+      </c>
+      <c r="D35">
+        <f t="shared" ca="1" si="10"/>
+        <v>1.6000000000000014E-2</v>
+      </c>
+      <c r="E35">
+        <f t="shared" ca="1" si="13"/>
+        <v>2.0000000000000046E-2</v>
+      </c>
+      <c r="F35">
+        <f t="shared" ca="1" si="14"/>
+        <v>-0.25700000000000001</v>
+      </c>
+      <c r="G35">
+        <f t="shared" ca="1" si="11"/>
+        <v>-1.0001599999999999</v>
+      </c>
+      <c r="H35">
+        <f t="shared" si="15"/>
+        <v>-0.01</v>
+      </c>
+      <c r="I35">
+        <f t="shared" si="15"/>
+        <v>0</v>
+      </c>
+      <c r="J35">
+        <f t="shared" si="15"/>
+        <v>0</v>
+      </c>
+    </row>
+    <row r="36" spans="1:10">
+      <c r="A36">
+        <v>-1</v>
+      </c>
+      <c r="B36">
+        <f t="shared" si="12"/>
+        <v>1.3877787807814457E-16</v>
+      </c>
+      <c r="C36">
+        <f t="shared" ca="1" si="9"/>
+        <v>1.3183898417423734E-16</v>
+      </c>
+      <c r="D36">
+        <f t="shared" ca="1" si="10"/>
+        <v>-6.9388939039072284E-18</v>
+      </c>
+      <c r="E36">
+        <f t="shared" ca="1" si="13"/>
+        <v>1.6000000000000014E-2</v>
+      </c>
+      <c r="F36">
+        <f t="shared" ca="1" si="14"/>
+        <v>-0.24099999999999999</v>
+      </c>
+      <c r="G36">
+        <f t="shared" ca="1" si="11"/>
+        <v>-1</v>
+      </c>
+      <c r="H36">
+        <f t="shared" si="15"/>
+        <v>-0.01</v>
+      </c>
+      <c r="I36">
+        <f t="shared" si="15"/>
+        <v>0</v>
+      </c>
+      <c r="J36">
+        <f t="shared" si="15"/>
+        <v>0</v>
+      </c>
+    </row>
+    <row r="37" spans="1:10">
+      <c r="A37">
+        <v>-1</v>
+      </c>
+      <c r="B37">
+        <f t="shared" si="12"/>
+        <v>-9.9999999999999867E-2</v>
+      </c>
+      <c r="C37">
+        <f t="shared" ca="1" si="9"/>
+        <v>-0.10099999999999987</v>
+      </c>
+      <c r="D37">
+        <f t="shared" ca="1" si="10"/>
+        <v>-1.0000000000000009E-3</v>
+      </c>
+      <c r="E37">
+        <f t="shared" ca="1" si="13"/>
+        <v>-6.9388939039072284E-18</v>
+      </c>
+      <c r="F37">
+        <f t="shared" ca="1" si="14"/>
+        <v>-0.24099999999999999</v>
+      </c>
+      <c r="G37">
+        <f t="shared" ca="1" si="11"/>
+        <v>-0.99999000000000005</v>
+      </c>
+      <c r="H37">
+        <f t="shared" si="15"/>
+        <v>-0.01</v>
+      </c>
+      <c r="I37">
+        <f t="shared" si="15"/>
+        <v>0</v>
+      </c>
+      <c r="J37">
+        <f t="shared" si="15"/>
+        <v>0</v>
+      </c>
+    </row>
+    <row r="38" spans="1:10">
+      <c r="A38">
+        <v>-1</v>
+      </c>
+      <c r="B38">
+        <f t="shared" si="12"/>
+        <v>-0.19999999999999987</v>
+      </c>
+      <c r="C38">
+        <f t="shared" ca="1" si="9"/>
+        <v>-0.21999999999999989</v>
+      </c>
+      <c r="D38">
+        <f t="shared" ca="1" si="10"/>
+        <v>-2.0000000000000018E-2</v>
+      </c>
+      <c r="E38">
+        <f t="shared" ca="1" si="13"/>
+        <v>-1.0000000000000009E-3</v>
+      </c>
+      <c r="F38">
+        <f t="shared" ca="1" si="14"/>
+        <v>-0.24199999999999999</v>
+      </c>
+      <c r="G38">
+        <f t="shared" ca="1" si="11"/>
+        <v>-0.99980000000000002</v>
+      </c>
+      <c r="H38">
+        <f t="shared" si="15"/>
+        <v>-0.01</v>
+      </c>
+      <c r="I38">
+        <f t="shared" si="15"/>
+        <v>0</v>
+      </c>
+      <c r="J38">
+        <f t="shared" si="15"/>
+        <v>0</v>
+      </c>
+    </row>
+    <row r="39" spans="1:10">
+      <c r="A39">
+        <v>-1</v>
+      </c>
+      <c r="B39">
+        <f t="shared" si="12"/>
+        <v>-0.29999999999999988</v>
+      </c>
+      <c r="C39">
+        <f t="shared" ca="1" si="9"/>
+        <v>-0.30599999999999988</v>
+      </c>
+      <c r="D39">
+        <f t="shared" ca="1" si="10"/>
+        <v>-6.0000000000000053E-3</v>
+      </c>
+      <c r="E39">
+        <f t="shared" ca="1" si="13"/>
+        <v>-2.0000000000000018E-2</v>
+      </c>
+      <c r="F39">
+        <f t="shared" ca="1" si="14"/>
+        <v>-0.26200000000000001</v>
+      </c>
+      <c r="G39">
+        <f t="shared" ca="1" si="11"/>
+        <v>-0.99994000000000005</v>
+      </c>
+      <c r="H39">
+        <f t="shared" si="15"/>
+        <v>-0.01</v>
+      </c>
+      <c r="I39">
+        <f t="shared" si="15"/>
+        <v>0</v>
+      </c>
+      <c r="J39">
+        <f t="shared" si="15"/>
+        <v>0</v>
+      </c>
+    </row>
+    <row r="40" spans="1:10">
+      <c r="A40">
+        <v>-1</v>
+      </c>
+      <c r="B40">
+        <f t="shared" si="12"/>
+        <v>-0.39999999999999991</v>
+      </c>
+      <c r="C40">
+        <f t="shared" ca="1" si="9"/>
+        <v>-0.43599999999999994</v>
+      </c>
+      <c r="D40">
+        <f t="shared" ca="1" si="10"/>
+        <v>-3.6000000000000032E-2</v>
+      </c>
+      <c r="E40">
+        <f t="shared" ca="1" si="13"/>
+        <v>-6.0000000000000053E-3</v>
+      </c>
+      <c r="F40">
+        <f t="shared" ca="1" si="14"/>
+        <v>-0.26800000000000002</v>
+      </c>
+      <c r="G40">
+        <f t="shared" ca="1" si="11"/>
+        <v>-0.99963999999999997</v>
+      </c>
+      <c r="H40">
+        <f t="shared" si="15"/>
+        <v>-0.01</v>
+      </c>
+      <c r="I40">
+        <f t="shared" si="15"/>
+        <v>0</v>
+      </c>
+      <c r="J40">
+        <f t="shared" si="15"/>
+        <v>0</v>
+      </c>
+    </row>
+    <row r="41" spans="1:10">
+      <c r="A41">
+        <v>-1</v>
+      </c>
+      <c r="B41">
+        <f t="shared" si="12"/>
+        <v>-0.49999999999999989</v>
+      </c>
+      <c r="C41">
+        <f t="shared" ca="1" si="9"/>
+        <v>-0.52499999999999991</v>
+      </c>
+      <c r="D41">
+        <f t="shared" ca="1" si="10"/>
+        <v>-2.5000000000000022E-2</v>
+      </c>
+      <c r="E41">
+        <f t="shared" ca="1" si="13"/>
+        <v>-3.6000000000000032E-2</v>
+      </c>
+      <c r="F41">
+        <f t="shared" ca="1" si="14"/>
+        <v>-0.30400000000000005</v>
+      </c>
+      <c r="G41">
+        <f t="shared" ca="1" si="11"/>
+        <v>-0.99975000000000003</v>
+      </c>
+      <c r="H41">
+        <f t="shared" si="15"/>
+        <v>-0.01</v>
+      </c>
+      <c r="I41">
+        <f t="shared" si="15"/>
+        <v>0</v>
+      </c>
+      <c r="J41">
+        <f t="shared" si="15"/>
+        <v>0</v>
+      </c>
+    </row>
+    <row r="42" spans="1:10">
+      <c r="A42">
+        <v>-1</v>
+      </c>
+      <c r="B42">
+        <f t="shared" si="12"/>
+        <v>-0.59999999999999987</v>
+      </c>
+      <c r="C42">
+        <f t="shared" ca="1" si="9"/>
+        <v>-0.6419999999999999</v>
+      </c>
+      <c r="D42">
+        <f t="shared" ca="1" si="10"/>
+        <v>-4.2000000000000037E-2</v>
+      </c>
+      <c r="E42">
+        <f t="shared" ca="1" si="13"/>
+        <v>-2.5000000000000022E-2</v>
+      </c>
+      <c r="F42">
+        <f t="shared" ca="1" si="14"/>
+        <v>-0.32900000000000007</v>
+      </c>
+      <c r="G42">
+        <f t="shared" ca="1" si="11"/>
+        <v>-0.99958000000000002</v>
+      </c>
+      <c r="H42">
+        <f t="shared" si="15"/>
+        <v>-0.01</v>
+      </c>
+      <c r="I42">
+        <f t="shared" si="15"/>
+        <v>0</v>
+      </c>
+      <c r="J42">
+        <f t="shared" si="15"/>
+        <v>0</v>
+      </c>
+    </row>
+    <row r="43" spans="1:10">
+      <c r="A43">
+        <v>-1</v>
+      </c>
+      <c r="B43">
+        <f t="shared" si="12"/>
+        <v>-0.69999999999999984</v>
+      </c>
+      <c r="C43">
+        <f t="shared" ca="1" si="9"/>
+        <v>-0.74199999999999988</v>
+      </c>
+      <c r="D43">
+        <f t="shared" ca="1" si="10"/>
+        <v>-4.2000000000000037E-2</v>
+      </c>
+      <c r="E43">
+        <f t="shared" ca="1" si="13"/>
+        <v>-4.2000000000000037E-2</v>
+      </c>
+      <c r="F43">
+        <f t="shared" ca="1" si="14"/>
+        <v>-0.37100000000000011</v>
+      </c>
+      <c r="G43">
+        <f t="shared" ca="1" si="11"/>
+        <v>-0.99958000000000002</v>
+      </c>
+      <c r="H43">
+        <f t="shared" si="15"/>
+        <v>-0.01</v>
+      </c>
+      <c r="I43">
+        <f t="shared" si="15"/>
+        <v>0</v>
+      </c>
+      <c r="J43">
+        <f t="shared" si="15"/>
+        <v>0</v>
+      </c>
+    </row>
+    <row r="44" spans="1:10">
+      <c r="A44">
+        <v>-1</v>
+      </c>
+      <c r="B44">
+        <f t="shared" si="12"/>
+        <v>-0.79999999999999982</v>
+      </c>
+      <c r="C44">
+        <f t="shared" ca="1" si="9"/>
+        <v>-0.79199999999999982</v>
+      </c>
+      <c r="D44">
+        <f t="shared" ca="1" si="10"/>
+        <v>8.0000000000000071E-3</v>
+      </c>
+      <c r="E44">
+        <f t="shared" ca="1" si="13"/>
+        <v>-4.2000000000000037E-2</v>
+      </c>
+      <c r="F44">
+        <f t="shared" ca="1" si="14"/>
+        <v>-0.41300000000000014</v>
+      </c>
+      <c r="G44">
+        <f t="shared" ca="1" si="11"/>
+        <v>-1.0000800000000001</v>
+      </c>
+      <c r="H44">
+        <f t="shared" ref="H44:J46" si="16">H43</f>
+        <v>-0.01</v>
+      </c>
+      <c r="I44">
+        <f t="shared" si="16"/>
+        <v>0</v>
+      </c>
+      <c r="J44">
+        <f t="shared" si="16"/>
+        <v>0</v>
+      </c>
+    </row>
+    <row r="45" spans="1:10">
+      <c r="A45">
+        <v>-1</v>
+      </c>
+      <c r="B45">
+        <f t="shared" si="12"/>
+        <v>-0.8999999999999998</v>
+      </c>
+      <c r="C45">
+        <f t="shared" ca="1" si="9"/>
+        <v>-0.79199999999999982</v>
+      </c>
+      <c r="D45">
+        <f t="shared" ca="1" si="10"/>
+        <v>0.10799999999999998</v>
+      </c>
+      <c r="E45">
+        <f t="shared" ca="1" si="13"/>
+        <v>8.0000000000000071E-3</v>
+      </c>
+      <c r="F45">
+        <f t="shared" ca="1" si="14"/>
+        <v>-0.40500000000000014</v>
+      </c>
+      <c r="G45">
+        <f t="shared" ca="1" si="11"/>
+        <v>-1.00108</v>
+      </c>
+      <c r="H45">
+        <f t="shared" si="16"/>
+        <v>-0.01</v>
+      </c>
+      <c r="I45">
+        <f t="shared" si="16"/>
+        <v>0</v>
+      </c>
+      <c r="J45">
+        <f t="shared" si="16"/>
+        <v>0</v>
+      </c>
+    </row>
+    <row r="46" spans="1:10">
+      <c r="A46">
+        <v>-1</v>
+      </c>
+      <c r="B46">
+        <f t="shared" si="12"/>
+        <v>-0.99999999999999978</v>
+      </c>
+      <c r="C46">
+        <f t="shared" ca="1" si="9"/>
+        <v>-1.1299999999999997</v>
+      </c>
+      <c r="D46">
+        <f t="shared" ca="1" si="10"/>
+        <v>-0.12999999999999989</v>
+      </c>
+      <c r="E46">
+        <f t="shared" ca="1" si="13"/>
+        <v>0.10799999999999998</v>
+      </c>
+      <c r="F46">
+        <f t="shared" ca="1" si="14"/>
+        <v>-0.29700000000000015</v>
+      </c>
+      <c r="G46">
+        <f t="shared" ca="1" si="11"/>
+        <v>-0.99870000000000003</v>
+      </c>
+      <c r="H46">
+        <f t="shared" si="16"/>
+        <v>-0.01</v>
+      </c>
+      <c r="I46">
+        <f t="shared" si="16"/>
+        <v>0</v>
+      </c>
+      <c r="J46">
+        <f t="shared" si="16"/>
         <v>0</v>
       </c>
     </row>
@@ -1341,10 +2236,18 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
   <dimension ref="A1"/>
   <sheetViews>
-    <sheetView workbookViewId="0"/>
+    <sheetView tabSelected="1" workbookViewId="0">
+      <selection activeCell="B1" sqref="B1"/>
+    </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15"/>
-  <sheetData/>
+  <sheetData>
+    <row r="1" spans="1:1">
+      <c r="A1" t="s">
+        <v>11</v>
+      </c>
+    </row>
+  </sheetData>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
 </worksheet>
 </file>
